--- a/тест-кейсы_баги.xlsx
+++ b/тест-кейсы_баги.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7305" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="тест кейс" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="314">
   <si>
     <t>TC-01: Отображение главной страницы</t>
   </si>
@@ -3256,9 +3256,6 @@
     <t>На экране сообщение "Регистрация завершина". В шапке изменилось слово Войти на Выйти</t>
   </si>
   <si>
-    <t xml:space="preserve"> Видно приветствие залогиенного пользователя .</t>
-  </si>
-  <si>
     <t>Выбрать дату заказа (завтра).</t>
   </si>
   <si>
@@ -3404,9 +3401,6 @@
   </si>
   <si>
     <t>В форме подтверждения заказа указана текущая дата</t>
-  </si>
-  <si>
-    <t>В форме подтверждения заказа указана дата, которую вводили при заполнение формы</t>
   </si>
   <si>
     <t>TC-15: Оформление заказа после регистрации с доставкой на завтра</t>
@@ -3442,9 +3436,6 @@
 Сумма к оплате изменилась.</t>
   </si>
   <si>
-    <t xml:space="preserve">Купон для первого заказа нельзя применить дважды отдним пользователем. </t>
-  </si>
-  <si>
     <t>Версия платформы: WordPress 5.5.7
 Браузер: Google Chrome
 Версия брузера: 139.0.7258.129</t>
@@ -3452,6 +3443,21 @@
   <si>
     <t xml:space="preserve">
 TC-18: Повторное применение купона</t>
+  </si>
+  <si>
+    <t>В форме подтверждения заказа указана дата, которую вводили при заполнении формы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Купон для первого заказа нельзя применить дважды одним пользователем. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Появляется форма оформления заказа с требованием авторизоваться </t>
+  </si>
+  <si>
+    <t>На экране сообщение "Регистрация завершена". В шапке изменилось слово Войти на Выйти</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Видно приветствие залогированого пользователя.</t>
   </si>
 </sst>
 </file>
@@ -4017,81 +4023,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4107,18 +4038,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4128,28 +4047,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4163,23 +4067,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4463,9 +4469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4479,7 +4485,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="68" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -4496,10 +4502,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="88" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -4513,9 +4519,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="116"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="97" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="91" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -4526,9 +4532,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A4" s="116"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="98"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -4537,9 +4543,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="116"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="97" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="91" t="s">
         <v>61</v>
       </c>
       <c r="D5" s="49" t="s">
@@ -4550,9 +4556,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="116"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="99"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
@@ -4561,9 +4567,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A7" s="116"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="98"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
@@ -4572,9 +4578,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="116"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="97" t="s">
+      <c r="A8" s="86"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="91" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="49" t="s">
@@ -4585,9 +4591,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="116"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="99"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -4596,9 +4602,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A10" s="116"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="98"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="5" t="s">
         <v>248</v>
       </c>
@@ -4607,9 +4613,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="116"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="97" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="91" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="49" t="s">
@@ -4620,9 +4626,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="116"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="99"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="5" t="s">
         <v>6</v>
       </c>
@@ -4631,9 +4637,9 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="116"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="98"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
@@ -4642,18 +4648,18 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A14" s="116"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="116"/>
-      <c r="B15" s="68" t="s">
+      <c r="A15" s="86"/>
+      <c r="B15" s="88" t="s">
         <v>253</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="91" t="s">
         <v>252</v>
       </c>
       <c r="D15" s="49" t="s">
@@ -4664,9 +4670,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="116"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="99"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="5" t="s">
         <v>6</v>
       </c>
@@ -4675,9 +4681,9 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="116"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="99"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="93"/>
       <c r="D17" s="5" t="s">
         <v>248</v>
       </c>
@@ -4686,9 +4692,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="30">
-      <c r="A18" s="116"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="99"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="5" t="s">
         <v>249</v>
       </c>
@@ -4697,9 +4703,9 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="116"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="99"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="5" t="s">
         <v>11</v>
       </c>
@@ -4708,20 +4714,20 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="116"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="99"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="102" t="s">
+      <c r="E20" s="73" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A21" s="116"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="98"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
@@ -4730,18 +4736,18 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="116"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="116"/>
-      <c r="B23" s="72" t="s">
+      <c r="A23" s="86"/>
+      <c r="B23" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C23" s="98" t="s">
         <v>83</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -4750,9 +4756,9 @@
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" ht="30">
-      <c r="A24" s="116"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="104"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="99"/>
       <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
@@ -4761,9 +4767,9 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="116"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="97" t="s">
+      <c r="A25" s="86"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="91" t="s">
         <v>84</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -4772,9 +4778,9 @@
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="30">
-      <c r="A26" s="116"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="99"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="93"/>
       <c r="D26" s="5" t="s">
         <v>17</v>
       </c>
@@ -4783,18 +4789,18 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="30">
-      <c r="A27" s="116"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="99"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="5" t="s">
         <v>255</v>
       </c>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" ht="30">
-      <c r="A28" s="116"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="98"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="5" t="s">
         <v>19</v>
       </c>
@@ -4803,9 +4809,9 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="116"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="97" t="s">
+      <c r="A29" s="86"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="91" t="s">
         <v>85</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -4814,9 +4820,9 @@
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" ht="30">
-      <c r="A30" s="116"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="99"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="5" t="s">
         <v>17</v>
       </c>
@@ -4825,9 +4831,9 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="116"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="98"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="5" t="s">
         <v>20</v>
       </c>
@@ -4836,40 +4842,40 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="116"/>
+      <c r="A32" s="86"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="30">
-      <c r="A33" s="116"/>
-      <c r="B33" s="72" t="s">
+      <c r="A33" s="86"/>
+      <c r="B33" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="97" t="s">
+      <c r="C33" s="91" t="s">
         <v>257</v>
       </c>
-      <c r="D33" s="100" t="s">
+      <c r="D33" s="71" t="s">
         <v>258</v>
       </c>
-      <c r="E33" s="112"/>
+      <c r="E33" s="78"/>
     </row>
     <row r="34" spans="1:5" ht="30">
-      <c r="A34" s="116"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="99"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="116"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="99"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="5" t="s">
         <v>23</v>
       </c>
@@ -4878,20 +4884,20 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="30">
-      <c r="A36" s="116"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="97" t="s">
+      <c r="A36" s="86"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="105" t="s">
+      <c r="D36" s="74" t="s">
         <v>258</v>
       </c>
-      <c r="E36" s="113"/>
+      <c r="E36" s="79"/>
     </row>
     <row r="37" spans="1:5" ht="30">
-      <c r="A37" s="116"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="99"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="93"/>
       <c r="D37" s="5" t="s">
         <v>22</v>
       </c>
@@ -4900,9 +4906,9 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="116"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="99"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="93"/>
       <c r="D38" s="5" t="s">
         <v>23</v>
       </c>
@@ -4911,18 +4917,18 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="116"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="99"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="93"/>
       <c r="D39" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="116"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="98"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="92"/>
       <c r="D40" s="5" t="s">
         <v>261</v>
       </c>
@@ -4931,31 +4937,31 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="30">
-      <c r="A41" s="116"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="97" t="s">
+      <c r="A41" s="86"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="105" t="s">
+      <c r="D41" s="74" t="s">
         <v>258</v>
       </c>
-      <c r="E41" s="113"/>
+      <c r="E41" s="79"/>
     </row>
     <row r="42" spans="1:5" ht="30">
-      <c r="A42" s="116"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="99"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="93"/>
       <c r="D42" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="116"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="99"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="93"/>
       <c r="D43" s="5" t="s">
         <v>23</v>
       </c>
@@ -4964,18 +4970,18 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="116"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="99"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="93"/>
       <c r="D44" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="116"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="99"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="93"/>
       <c r="D45" s="5" t="s">
         <v>261</v>
       </c>
@@ -4984,9 +4990,9 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="116"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="98"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="92"/>
       <c r="D46" s="5" t="s">
         <v>134</v>
       </c>
@@ -4995,18 +5001,18 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="116"/>
+      <c r="A47" s="86"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="116"/>
-      <c r="B48" s="72" t="s">
+      <c r="A48" s="86"/>
+      <c r="B48" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="103" t="s">
+      <c r="C48" s="98" t="s">
         <v>87</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -5015,20 +5021,20 @@
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:7" ht="30">
-      <c r="A49" s="116"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="104"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="99"/>
       <c r="D49" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>34</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="116"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="97" t="s">
+      <c r="A50" s="86"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="91" t="s">
         <v>88</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -5037,20 +5043,20 @@
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:7" ht="30">
-      <c r="A51" s="116"/>
-      <c r="B51" s="73"/>
-      <c r="C51" s="99"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="93"/>
       <c r="D51" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>34</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30">
-      <c r="A52" s="116"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="99"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="93"/>
       <c r="D52" s="5" t="s">
         <v>33</v>
       </c>
@@ -5059,9 +5065,9 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="116"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="99"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="93"/>
       <c r="D53" s="5" t="s">
         <v>29</v>
       </c>
@@ -5070,9 +5076,9 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="30">
-      <c r="A54" s="116"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="99"/>
+      <c r="A54" s="86"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="93"/>
       <c r="D54" s="5" t="s">
         <v>30</v>
       </c>
@@ -5081,31 +5087,31 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="45">
-      <c r="A55" s="116"/>
-      <c r="B55" s="73"/>
-      <c r="C55" s="99"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="93"/>
       <c r="D55" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30">
-      <c r="A56" s="116"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="98"/>
+      <c r="A56" s="86"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="92"/>
       <c r="D56" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="30" customHeight="1">
-      <c r="A57" s="116"/>
-      <c r="B57" s="73"/>
-      <c r="C57" s="97" t="s">
+      <c r="A57" s="86"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="91" t="s">
         <v>89</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -5114,9 +5120,9 @@
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:7" ht="30">
-      <c r="A58" s="116"/>
-      <c r="B58" s="73"/>
-      <c r="C58" s="99"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="93"/>
       <c r="D58" s="5" t="s">
         <v>31</v>
       </c>
@@ -5125,9 +5131,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="30">
-      <c r="A59" s="116"/>
-      <c r="B59" s="73"/>
-      <c r="C59" s="99"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="93"/>
       <c r="D59" s="5" t="s">
         <v>33</v>
       </c>
@@ -5136,9 +5142,9 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="116"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="99"/>
+      <c r="A60" s="86"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="93"/>
       <c r="D60" s="5" t="s">
         <v>29</v>
       </c>
@@ -5147,9 +5153,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="30">
-      <c r="A61" s="116"/>
-      <c r="B61" s="73"/>
-      <c r="C61" s="99"/>
+      <c r="A61" s="86"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="93"/>
       <c r="D61" s="5" t="s">
         <v>30</v>
       </c>
@@ -5158,9 +5164,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="45">
-      <c r="A62" s="116"/>
-      <c r="B62" s="73"/>
-      <c r="C62" s="99"/>
+      <c r="A62" s="86"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="93"/>
       <c r="D62" s="5" t="s">
         <v>29</v>
       </c>
@@ -5169,9 +5175,9 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="116"/>
-      <c r="B63" s="73"/>
-      <c r="C63" s="99"/>
+      <c r="A63" s="86"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="93"/>
       <c r="D63" s="6" t="s">
         <v>38</v>
       </c>
@@ -5182,9 +5188,9 @@
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" ht="30">
-      <c r="A64" s="116"/>
-      <c r="B64" s="73"/>
-      <c r="C64" s="99"/>
+      <c r="A64" s="86"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="93"/>
       <c r="D64" s="6" t="s">
         <v>31</v>
       </c>
@@ -5195,9 +5201,9 @@
       <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="116"/>
-      <c r="B65" s="73"/>
-      <c r="C65" s="99"/>
+      <c r="A65" s="86"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="93"/>
       <c r="D65" s="5" t="s">
         <v>41</v>
       </c>
@@ -5206,18 +5212,18 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="116"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="99"/>
+      <c r="A66" s="86"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="93"/>
       <c r="D66" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E66" s="17"/>
     </row>
     <row r="67" spans="1:5" ht="30">
-      <c r="A67" s="116"/>
-      <c r="B67" s="73"/>
-      <c r="C67" s="99"/>
+      <c r="A67" s="86"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="93"/>
       <c r="D67" s="5" t="s">
         <v>43</v>
       </c>
@@ -5226,9 +5232,9 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="116"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="99"/>
+      <c r="A68" s="86"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="93"/>
       <c r="D68" s="5" t="s">
         <v>46</v>
       </c>
@@ -5237,31 +5243,31 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="30">
-      <c r="A69" s="118"/>
-      <c r="B69" s="74"/>
-      <c r="C69" s="98"/>
+      <c r="A69" s="87"/>
+      <c r="B69" s="97"/>
+      <c r="C69" s="92"/>
       <c r="D69" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="94"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94"/>
+      <c r="A70" s="69"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="117" t="s">
+      <c r="A71" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="B71" s="119" t="s">
+      <c r="B71" s="101" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="97" t="s">
+      <c r="C71" s="91" t="s">
         <v>188</v>
       </c>
       <c r="D71" s="5" t="s">
@@ -5270,9 +5276,9 @@
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" ht="30">
-      <c r="A72" s="116"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="99"/>
+      <c r="A72" s="86"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="93"/>
       <c r="D72" s="5" t="s">
         <v>17</v>
       </c>
@@ -5281,29 +5287,29 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="116"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="99"/>
+      <c r="A73" s="86"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="93"/>
       <c r="D73" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" ht="45">
+      <c r="A74" s="86"/>
+      <c r="B74" s="102"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74" spans="1:5" ht="45">
-      <c r="A74" s="116"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="116"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="98"/>
+      <c r="A75" s="86"/>
+      <c r="B75" s="103"/>
+      <c r="C75" s="92"/>
       <c r="D75" s="5" t="s">
         <v>178</v>
       </c>
@@ -5312,18 +5318,18 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="17.25">
-      <c r="A76" s="116"/>
-      <c r="B76" s="94"/>
+      <c r="A76" s="86"/>
+      <c r="B76" s="69"/>
       <c r="C76" s="53"/>
       <c r="D76" s="54"/>
-      <c r="E76" s="120"/>
+      <c r="E76" s="82"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="116"/>
-      <c r="B77" s="68" t="s">
-        <v>281</v>
-      </c>
-      <c r="C77" s="107" t="s">
+      <c r="A77" s="86"/>
+      <c r="B77" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="C77" s="94" t="s">
         <v>189</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -5332,9 +5338,9 @@
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" ht="30" customHeight="1">
-      <c r="A78" s="116"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="107"/>
+      <c r="A78" s="86"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="94"/>
       <c r="D78" s="5" t="s">
         <v>17</v>
       </c>
@@ -5343,29 +5349,29 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="116"/>
-      <c r="B79" s="69"/>
-      <c r="C79" s="107"/>
+      <c r="A79" s="86"/>
+      <c r="B79" s="89"/>
+      <c r="C79" s="94"/>
       <c r="D79" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="116"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="107"/>
+      <c r="A80" s="86"/>
+      <c r="B80" s="89"/>
+      <c r="C80" s="94"/>
       <c r="D80" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="116"/>
-      <c r="B81" s="69"/>
-      <c r="C81" s="107"/>
+      <c r="A81" s="86"/>
+      <c r="B81" s="89"/>
+      <c r="C81" s="94"/>
       <c r="D81" s="6" t="s">
         <v>178</v>
       </c>
@@ -5374,66 +5380,66 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="30">
-      <c r="A82" s="116"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="107" t="s">
+      <c r="A82" s="86"/>
+      <c r="B82" s="89"/>
+      <c r="C82" s="94" t="s">
         <v>191</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:6" ht="30">
-      <c r="A83" s="116"/>
-      <c r="B83" s="69"/>
-      <c r="C83" s="107"/>
+      <c r="A83" s="86"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="94"/>
       <c r="D83" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F83" s="109"/>
+      <c r="F83" s="76"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="116"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="107"/>
+      <c r="A84" s="86"/>
+      <c r="B84" s="89"/>
+      <c r="C84" s="94"/>
       <c r="D84" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E84" s="8"/>
+      <c r="F84" s="76"/>
+    </row>
+    <row r="85" spans="1:6" ht="45">
+      <c r="A85" s="86"/>
+      <c r="B85" s="89"/>
+      <c r="C85" s="94"/>
+      <c r="D85" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="109"/>
-    </row>
-    <row r="85" spans="1:6" ht="45">
-      <c r="A85" s="116"/>
-      <c r="B85" s="69"/>
-      <c r="C85" s="107"/>
-      <c r="D85" s="6" t="s">
+      <c r="F85" s="76"/>
+    </row>
+    <row r="86" spans="1:6" ht="30">
+      <c r="A86" s="86"/>
+      <c r="B86" s="89"/>
+      <c r="C86" s="94"/>
+      <c r="D86" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="E85" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="F85" s="109"/>
-    </row>
-    <row r="86" spans="1:6" ht="30">
-      <c r="A86" s="116"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="107"/>
-      <c r="D86" s="6" t="s">
+      <c r="E86" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="E86" s="8" t="s">
-        <v>272</v>
-      </c>
       <c r="F86" s="10"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="116"/>
-      <c r="B87" s="69"/>
-      <c r="C87" s="107"/>
+      <c r="A87" s="86"/>
+      <c r="B87" s="89"/>
+      <c r="C87" s="94"/>
       <c r="D87" s="58" t="s">
         <v>46</v>
       </c>
@@ -5443,31 +5449,31 @@
       <c r="F87" s="10"/>
     </row>
     <row r="88" spans="1:6" ht="30">
-      <c r="A88" s="116"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="108"/>
+      <c r="A88" s="86"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="100"/>
       <c r="D88" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F88" s="10"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="116"/>
-      <c r="B89" s="69"/>
-      <c r="C89" s="108"/>
+      <c r="A89" s="86"/>
+      <c r="B89" s="89"/>
+      <c r="C89" s="100"/>
       <c r="D89" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="10"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="116"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="108"/>
+      <c r="A90" s="86"/>
+      <c r="B90" s="89"/>
+      <c r="C90" s="100"/>
       <c r="D90" s="6" t="s">
         <v>184</v>
       </c>
@@ -5476,29 +5482,29 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="116"/>
-      <c r="B91" s="69"/>
-      <c r="C91" s="107"/>
-      <c r="D91" s="106" t="s">
-        <v>266</v>
-      </c>
-      <c r="E91" s="95"/>
+      <c r="A91" s="86"/>
+      <c r="B91" s="89"/>
+      <c r="C91" s="94"/>
+      <c r="D91" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="E91" s="70"/>
     </row>
     <row r="92" spans="1:6" ht="30">
-      <c r="A92" s="116"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="107"/>
+      <c r="A92" s="86"/>
+      <c r="B92" s="89"/>
+      <c r="C92" s="94"/>
       <c r="D92" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="116"/>
-      <c r="B93" s="69"/>
-      <c r="C93" s="107"/>
+      <c r="A93" s="86"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="94"/>
       <c r="D93" s="6" t="s">
         <v>178</v>
       </c>
@@ -5507,9 +5513,9 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1">
-      <c r="A94" s="116"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="97" t="s">
+      <c r="A94" s="86"/>
+      <c r="B94" s="89"/>
+      <c r="C94" s="91" t="s">
         <v>192</v>
       </c>
       <c r="D94" s="5" t="s">
@@ -5518,9 +5524,9 @@
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:6" ht="30">
-      <c r="A95" s="116"/>
-      <c r="B95" s="69"/>
-      <c r="C95" s="99"/>
+      <c r="A95" s="86"/>
+      <c r="B95" s="89"/>
+      <c r="C95" s="93"/>
       <c r="D95" s="5" t="s">
         <v>17</v>
       </c>
@@ -5529,40 +5535,40 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="116"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="99"/>
+      <c r="A96" s="86"/>
+      <c r="B96" s="89"/>
+      <c r="C96" s="93"/>
       <c r="D96" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="116"/>
-      <c r="B97" s="69"/>
-      <c r="C97" s="99"/>
+      <c r="A97" s="86"/>
+      <c r="B97" s="89"/>
+      <c r="C97" s="93"/>
       <c r="D97" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="45">
-      <c r="A98" s="116"/>
-      <c r="B98" s="69"/>
-      <c r="C98" s="99"/>
+      <c r="A98" s="86"/>
+      <c r="B98" s="89"/>
+      <c r="C98" s="93"/>
       <c r="D98" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="118"/>
-      <c r="B99" s="96"/>
-      <c r="C99" s="98"/>
+      <c r="A99" s="87"/>
+      <c r="B99" s="90"/>
+      <c r="C99" s="92"/>
       <c r="D99" s="6" t="s">
         <v>178</v>
       </c>
@@ -5578,13 +5584,13 @@
       <c r="E100" s="52"/>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1">
-      <c r="A101" s="117" t="s">
+      <c r="A101" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="B101" s="107" t="s">
-        <v>282</v>
-      </c>
-      <c r="C101" s="110" t="s">
+      <c r="B101" s="94" t="s">
+        <v>281</v>
+      </c>
+      <c r="C101" s="84" t="s">
         <v>217</v>
       </c>
       <c r="D101" s="5" t="s">
@@ -5595,50 +5601,50 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A102" s="116"/>
-      <c r="B102" s="107"/>
-      <c r="C102" s="110"/>
+      <c r="A102" s="86"/>
+      <c r="B102" s="94"/>
+      <c r="C102" s="84"/>
       <c r="D102" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E102" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="E102" s="8" t="s">
+    </row>
+    <row r="103" spans="1:5" ht="15" customHeight="1">
+      <c r="A103" s="86"/>
+      <c r="B103" s="94"/>
+      <c r="C103" s="84"/>
+      <c r="D103" s="6" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1">
-      <c r="A103" s="116"/>
-      <c r="B103" s="107"/>
-      <c r="C103" s="110"/>
-      <c r="D103" s="6" t="s">
+      <c r="E103" s="72"/>
+    </row>
+    <row r="104" spans="1:5" ht="42.75" customHeight="1">
+      <c r="A104" s="86"/>
+      <c r="B104" s="94"/>
+      <c r="C104" s="84"/>
+      <c r="D104" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E103" s="101"/>
-    </row>
-    <row r="104" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A104" s="116"/>
-      <c r="B104" s="107"/>
-      <c r="C104" s="110"/>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E104" s="8" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="116"/>
+      <c r="A105" s="86"/>
       <c r="B105" s="53"/>
       <c r="C105" s="53"/>
       <c r="D105" s="53"/>
-      <c r="E105" s="114"/>
+      <c r="E105" s="80"/>
     </row>
     <row r="106" spans="1:5" ht="30" customHeight="1">
-      <c r="A106" s="116"/>
-      <c r="B106" s="68" t="s">
+      <c r="A106" s="86"/>
+      <c r="B106" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="C106" s="88" t="s">
         <v>283</v>
-      </c>
-      <c r="C106" s="68" t="s">
-        <v>284</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>32</v>
@@ -5648,34 +5654,34 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="30">
-      <c r="A107" s="116"/>
-      <c r="B107" s="69"/>
-      <c r="C107" s="69"/>
+      <c r="A107" s="86"/>
+      <c r="B107" s="89"/>
+      <c r="C107" s="89"/>
       <c r="D107" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E107" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="E107" s="8" t="s">
-        <v>277</v>
-      </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="116"/>
-      <c r="B108" s="69"/>
-      <c r="C108" s="69"/>
+      <c r="A108" s="86"/>
+      <c r="B108" s="89"/>
+      <c r="C108" s="89"/>
       <c r="D108" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E108" s="72"/>
+    </row>
+    <row r="109" spans="1:5" ht="45">
+      <c r="A109" s="87"/>
+      <c r="B109" s="90"/>
+      <c r="C109" s="90"/>
+      <c r="D109" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E109" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="E108" s="101"/>
-    </row>
-    <row r="109" spans="1:5" ht="45">
-      <c r="A109" s="118"/>
-      <c r="B109" s="96"/>
-      <c r="C109" s="96"/>
-      <c r="D109" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5709,12 +5715,12 @@
       <c r="E115" s="10"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="111"/>
+      <c r="A116" s="77"/>
       <c r="C116" s="4"/>
       <c r="E116" s="10"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="111"/>
+      <c r="A117" s="77"/>
       <c r="C117" s="4"/>
       <c r="E117" s="10"/>
     </row>
@@ -5751,6 +5757,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A2:A69"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="B77:B99"/>
+    <mergeCell ref="A71:A99"/>
+    <mergeCell ref="B48:B69"/>
+    <mergeCell ref="C57:C69"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="B33:B46"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="C82:C93"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="C101:C104"/>
     <mergeCell ref="A101:A109"/>
     <mergeCell ref="B106:B109"/>
@@ -5767,22 +5789,6 @@
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="C41:C46"/>
     <mergeCell ref="C50:C56"/>
-    <mergeCell ref="C57:C69"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="B33:B46"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="C82:C93"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="A2:A69"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="B77:B99"/>
-    <mergeCell ref="A71:A99"/>
-    <mergeCell ref="B48:B69"/>
-    <mergeCell ref="C23:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5795,7 +5801,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5811,106 +5817,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="83" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="83" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="C1" s="83" t="s">
         <v>288</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="D1" s="83" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="E1" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="E1" s="121" t="s">
-        <v>222</v>
-      </c>
-      <c r="F1" s="121" t="s">
+      <c r="G1" s="83" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="121" t="s">
+      <c r="H1" s="83" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="75">
+      <c r="A2" s="81">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="121" t="s">
+      <c r="G2" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" s="81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="135">
+      <c r="A3" s="81">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="75">
-      <c r="A2" s="115">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="H2" s="115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="135">
-      <c r="A3" s="115">
+      <c r="D3" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" s="81">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="180">
+      <c r="A4" s="81">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="H3" s="115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="180">
-      <c r="A4" s="115">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="H4" s="115">
+      <c r="H4" s="81">
         <v>2</v>
       </c>
     </row>
@@ -6155,7 +6161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -6259,7 +6265,7 @@
       <c r="C13" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="116" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6270,7 +6276,7 @@
       <c r="C14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="71"/>
+      <c r="D14" s="117"/>
     </row>
     <row r="15" spans="2:4" ht="30">
       <c r="B15" s="24"/>
@@ -6297,7 +6303,7 @@
       <c r="C18" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="119" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6308,7 +6314,7 @@
       <c r="C19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="120"/>
     </row>
     <row r="20" spans="2:4" ht="30">
       <c r="B20" s="23" t="s">
@@ -6317,7 +6323,7 @@
       <c r="C20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="77"/>
+      <c r="D20" s="120"/>
     </row>
     <row r="21" spans="2:4" ht="45">
       <c r="B21" s="23" t="s">
@@ -6326,14 +6332,14 @@
       <c r="C21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="77"/>
+      <c r="D21" s="120"/>
     </row>
     <row r="22" spans="2:4" ht="30">
       <c r="B22" s="24"/>
       <c r="C22" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="78"/>
+      <c r="D22" s="121"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="31" t="s">
@@ -6353,7 +6359,7 @@
       <c r="C25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="117" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6364,7 +6370,7 @@
       <c r="C26" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="71"/>
+      <c r="D26" s="117"/>
     </row>
     <row r="27" spans="2:4" ht="45">
       <c r="B27" s="23" t="s">
@@ -6373,7 +6379,7 @@
       <c r="C27" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="71"/>
+      <c r="D27" s="117"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="23" t="s">
@@ -6382,7 +6388,7 @@
       <c r="C28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="71"/>
+      <c r="D28" s="117"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="24" t="s">
@@ -6391,7 +6397,7 @@
       <c r="C29" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="75"/>
+      <c r="D29" s="118"/>
     </row>
     <row r="31" spans="2:4" ht="30">
       <c r="B31" s="26" t="s">
@@ -6400,7 +6406,7 @@
       <c r="C31" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="70" t="s">
+      <c r="D31" s="116" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6411,14 +6417,14 @@
       <c r="C32" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="71"/>
+      <c r="D32" s="117"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="24"/>
       <c r="C33" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="75"/>
+      <c r="D33" s="118"/>
     </row>
     <row r="35" spans="2:4" ht="30">
       <c r="B35" s="26" t="s">
@@ -6427,7 +6433,7 @@
       <c r="C35" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="70" t="s">
+      <c r="D35" s="116" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6436,7 +6442,7 @@
       <c r="C36" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="75"/>
+      <c r="D36" s="118"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="31" t="s">
@@ -6456,7 +6462,7 @@
       <c r="C39" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="70" t="s">
+      <c r="D39" s="116" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6467,21 +6473,21 @@
       <c r="C40" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="71"/>
+      <c r="D40" s="117"/>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="23" t="s">
         <v>124</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="71"/>
+      <c r="D41" s="117"/>
     </row>
     <row r="42" spans="2:4" ht="70.5" customHeight="1">
       <c r="B42" s="24" t="s">
         <v>125</v>
       </c>
       <c r="C42" s="34"/>
-      <c r="D42" s="75"/>
+      <c r="D42" s="118"/>
     </row>
     <row r="44" spans="2:4" ht="30">
       <c r="B44" s="35" t="s">
@@ -6490,7 +6496,7 @@
       <c r="C44" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D44" s="88" t="s">
+      <c r="D44" s="113" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6501,7 +6507,7 @@
       <c r="C45" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="D45" s="89"/>
+      <c r="D45" s="114"/>
     </row>
     <row r="46" spans="2:4" ht="117.75" customHeight="1">
       <c r="B46" s="24" t="s">
@@ -6510,7 +6516,7 @@
       <c r="C46" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="90"/>
+      <c r="D46" s="115"/>
     </row>
     <row r="48" spans="2:4" ht="195">
       <c r="B48" s="35" t="s">
@@ -6541,7 +6547,7 @@
       <c r="C51" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="85" t="s">
+      <c r="D51" s="110" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6552,16 +6558,16 @@
       <c r="C52" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="86"/>
+      <c r="D52" s="111"/>
     </row>
     <row r="54" spans="2:4" ht="87" customHeight="1">
       <c r="B54" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C54" s="91" t="s">
+      <c r="C54" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="D54" s="87" t="s">
+      <c r="D54" s="112" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6569,10 +6575,10 @@
       <c r="B55" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C55" s="92" t="s">
+      <c r="C55" s="67" t="s">
         <v>240</v>
       </c>
-      <c r="D55" s="85"/>
+      <c r="D55" s="110"/>
     </row>
     <row r="56" spans="2:4" ht="45">
       <c r="B56" s="23" t="s">
@@ -6581,7 +6587,7 @@
       <c r="C56" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="85"/>
+      <c r="D56" s="110"/>
     </row>
     <row r="57" spans="2:4" ht="65.25" customHeight="1">
       <c r="B57" s="23" t="s">
@@ -6590,7 +6596,7 @@
       <c r="C57" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="D57" s="85"/>
+      <c r="D57" s="110"/>
     </row>
     <row r="58" spans="2:4" ht="54" customHeight="1">
       <c r="B58" s="23" t="s">
@@ -6599,14 +6605,14 @@
       <c r="C58" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="D58" s="85"/>
+      <c r="D58" s="110"/>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="24" t="s">
         <v>152</v>
       </c>
       <c r="C59" s="34"/>
-      <c r="D59" s="86"/>
+      <c r="D59" s="111"/>
     </row>
     <row r="61" spans="2:4" ht="75">
       <c r="B61" s="26" t="s">
@@ -6615,7 +6621,7 @@
       <c r="C61" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="D61" s="82" t="s">
+      <c r="D61" s="107" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6626,7 +6632,7 @@
       <c r="C62" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="D62" s="83"/>
+      <c r="D62" s="108"/>
     </row>
     <row r="63" spans="2:4" ht="30">
       <c r="B63" s="23" t="s">
@@ -6635,7 +6641,7 @@
       <c r="C63" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="D63" s="83"/>
+      <c r="D63" s="108"/>
     </row>
     <row r="64" spans="2:4" ht="30">
       <c r="B64" s="23" t="s">
@@ -6644,7 +6650,7 @@
       <c r="C64" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="D64" s="83"/>
+      <c r="D64" s="108"/>
     </row>
     <row r="65" spans="2:4" ht="30">
       <c r="B65" s="23" t="s">
@@ -6653,7 +6659,7 @@
       <c r="C65" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="D65" s="83"/>
+      <c r="D65" s="108"/>
     </row>
     <row r="66" spans="2:4" ht="69" customHeight="1">
       <c r="B66" s="23" t="s">
@@ -6662,7 +6668,7 @@
       <c r="C66" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="D66" s="83"/>
+      <c r="D66" s="108"/>
     </row>
     <row r="67" spans="2:4" ht="60">
       <c r="B67" s="23" t="s">
@@ -6671,7 +6677,7 @@
       <c r="C67" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D67" s="83"/>
+      <c r="D67" s="108"/>
     </row>
     <row r="68" spans="2:4" ht="30">
       <c r="B68" s="23" t="s">
@@ -6680,35 +6686,35 @@
       <c r="C68" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D68" s="83"/>
+      <c r="D68" s="108"/>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="23" t="s">
         <v>166</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="83"/>
+      <c r="D69" s="108"/>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="23" t="s">
         <v>167</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="83"/>
+      <c r="D70" s="108"/>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="23" t="s">
         <v>168</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="83"/>
+      <c r="D71" s="108"/>
     </row>
     <row r="72" spans="2:4" ht="69.75" customHeight="1">
       <c r="B72" s="24" t="s">
         <v>169</v>
       </c>
       <c r="C72" s="34"/>
-      <c r="D72" s="84"/>
+      <c r="D72" s="109"/>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="43" t="s">
@@ -6728,7 +6734,7 @@
       <c r="C75" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D75" s="79" t="s">
+      <c r="D75" s="104" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6739,7 +6745,7 @@
       <c r="C76" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D76" s="80"/>
+      <c r="D76" s="105"/>
     </row>
     <row r="77" spans="2:4" ht="30">
       <c r="B77" s="57" t="s">
@@ -6748,7 +6754,7 @@
       <c r="C77" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D77" s="80"/>
+      <c r="D77" s="105"/>
     </row>
     <row r="78" spans="2:4" ht="75" customHeight="1">
       <c r="B78" s="57" t="s">
@@ -6757,7 +6763,7 @@
       <c r="C78" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D78" s="80"/>
+      <c r="D78" s="105"/>
     </row>
     <row r="79" spans="2:4" ht="30">
       <c r="B79" s="23" t="s">
@@ -6766,7 +6772,7 @@
       <c r="C79" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D79" s="80"/>
+      <c r="D79" s="105"/>
     </row>
     <row r="80" spans="2:4" ht="49.5" customHeight="1">
       <c r="B80" s="23" t="s">
@@ -6775,7 +6781,7 @@
       <c r="C80" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D80" s="80"/>
+      <c r="D80" s="105"/>
     </row>
     <row r="81" spans="2:4" ht="56.25" customHeight="1">
       <c r="B81" s="24" t="s">
@@ -6784,7 +6790,7 @@
       <c r="C81" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="D81" s="81"/>
+      <c r="D81" s="106"/>
     </row>
     <row r="83" spans="2:4" ht="240" customHeight="1">
       <c r="B83" s="35" t="s">
@@ -6835,7 +6841,7 @@
       <c r="C90" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D90" s="79" t="s">
+      <c r="D90" s="104" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6846,7 +6852,7 @@
       <c r="C91" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D91" s="80"/>
+      <c r="D91" s="105"/>
     </row>
     <row r="92" spans="2:4" ht="30">
       <c r="B92" s="23" t="s">
@@ -6855,7 +6861,7 @@
       <c r="C92" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D92" s="80"/>
+      <c r="D92" s="105"/>
     </row>
     <row r="93" spans="2:4" ht="45">
       <c r="B93" s="24" t="s">
@@ -6864,7 +6870,7 @@
       <c r="C93" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="D93" s="81"/>
+      <c r="D93" s="106"/>
     </row>
     <row r="94" spans="2:4">
       <c r="C94" s="20"/>
@@ -6882,11 +6888,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="D75:D81"/>
-    <mergeCell ref="D61:D72"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D54:D59"/>
     <mergeCell ref="D44:D46"/>
     <mergeCell ref="D39:D42"/>
     <mergeCell ref="D13:D14"/>
@@ -6894,6 +6895,11 @@
     <mergeCell ref="D25:D29"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="D75:D81"/>
+    <mergeCell ref="D61:D72"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D54:D59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
